--- a/export2.xlsx
+++ b/export2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicholas.silva\Documents\Github\8.0\CrawJUD-Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9C1C1A-680F-43AA-A2CF-74C9D6DD58C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C026BF30-619B-4E3E-9972-421F57FD40DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>login</t>
   </si>
@@ -46,9 +46,6 @@
     <t>arthur@fmvadv.com.br</t>
   </si>
   <si>
-    <t>$2b$12$lte8J3d7pPPEOjTLEwDlq.QzvKcZ2Gq36qeiwSIfZEYGqXjjLFJ9C</t>
-  </si>
-  <si>
     <t>heitor.abreu</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>suporte@fmvadv.com.br</t>
   </si>
   <si>
-    <t>$2b$12$UvWdzTDHtfgX4QoQX..FIuGh6cdeMbqo7pXlpf40i9srw.7N4ZicO</t>
-  </si>
-  <si>
     <t>igor.passos</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>igor.passos@fmadv.com.br</t>
   </si>
   <si>
-    <t>$2b$12$cJoski/.voTpnRgmKUySxeQPkz8INk/d/zfxZNnMq48UfDjGiWC72</t>
-  </si>
-  <si>
     <t>stephano.nazarian</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>stephano@fmvadv.com.br</t>
   </si>
   <si>
-    <t>$2b$12$FZesYLH9lOHdZzWw0vh5pu6wKQEU.7nPQXLKCGBC8AD.6gaNsLtM2</t>
-  </si>
-  <si>
     <t>andreza.brito</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
     <t>andreza.oliveira@fmvadv.com.br</t>
   </si>
   <si>
-    <t>$2b$12$hDjI7kdjDC1YqQalAofvO.Zlph1p74.7qq5hn3Bv2mEVpPlnHnVga</t>
-  </si>
-  <si>
     <t>edilvane.viana</t>
   </si>
   <si>
@@ -106,9 +91,6 @@
     <t>edilvane@fmvadv.com.br</t>
   </si>
   <si>
-    <t>$2b$12$rWb.mUob4WkY6G127Xsodu8cQZm2enEsMjC/keyKUpQjYnS5LlM16</t>
-  </si>
-  <si>
     <t>lais.pereira</t>
   </si>
   <si>
@@ -118,9 +100,6 @@
     <t>lais@fmvadv.com.br</t>
   </si>
   <si>
-    <t>$2b$12$1yV9bN6Jt4DNhwPEzZzrt.1FnB60m9qmYGG2HttaLFWL0pnXzRrwG</t>
-  </si>
-  <si>
     <t>patricia.melo</t>
   </si>
   <si>
@@ -148,9 +127,6 @@
     <t>paloma.silva@fmvadv.com.br</t>
   </si>
   <si>
-    <t>$2b$12$sGpggXMCwmyUxZiaxr.bX.cACzou4/M9xIrF6gM/b2qGxWvz4hmh.</t>
-  </si>
-  <si>
     <t>ivan.junior</t>
   </si>
   <si>
@@ -160,10 +136,10 @@
     <t>ivan.junior@rhsolut.com.br</t>
   </si>
   <si>
-    <t>$2b$12$zjasF85R1TMH7HMc5lfbF.ihA55qrol/QueD.zZ9NTw7.mbFXzvuC</t>
-  </si>
-  <si>
     <t>admins</t>
+  </si>
+  <si>
+    <t>FMV2024@</t>
   </si>
 </sst>
 </file>
@@ -204,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,17 +221,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
     <sortCondition ref="B1:B12"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="login" dataDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{4E2E7A5E-1CDF-4B2D-9904-905642482B86}" name="admins" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="nome_usuario" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="email" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="password" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="login" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{4E2E7A5E-1CDF-4B2D-9904-905642482B86}" name="admins" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="nome_usuario" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="email" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="password" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -551,7 +527,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,189 +540,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B6"/>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B11"/>
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B12"/>
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
